--- a/Phenoloxidase Activity data/Data for 150 samples/11. Phenoloxidase 02-08-24 (HEG 23 - 31).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/11. Phenoloxidase 02-08-24 (HEG 23 - 31).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1018,11 +1018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="295117096"/>
-        <c:axId val="295116704"/>
+        <c:axId val="233357856"/>
+        <c:axId val="233360600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="295117096"/>
+        <c:axId val="233357856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,12 +1079,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295116704"/>
+        <c:crossAx val="233360600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="295116704"/>
+        <c:axId val="233360600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295117096"/>
+        <c:crossAx val="233357856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1205,7 +1205,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1280,7 +1279,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1375,11 +1373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235186408"/>
-        <c:axId val="235188760"/>
+        <c:axId val="284806600"/>
+        <c:axId val="284805816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235186408"/>
+        <c:axId val="284806600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,12 +1434,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235188760"/>
+        <c:crossAx val="284805816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235188760"/>
+        <c:axId val="284805816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235186408"/>
+        <c:crossAx val="284806600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1562,7 +1560,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1637,7 +1634,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1762,11 +1758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235187192"/>
-        <c:axId val="235187584"/>
+        <c:axId val="284806992"/>
+        <c:axId val="284810128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235187192"/>
+        <c:axId val="284806992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,12 +1819,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235187584"/>
+        <c:crossAx val="284810128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235187584"/>
+        <c:axId val="284810128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235187192"/>
+        <c:crossAx val="284806992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1949,7 +1945,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2154,11 +2149,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369339784"/>
-        <c:axId val="369332336"/>
+        <c:axId val="284803464"/>
+        <c:axId val="284802680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369339784"/>
+        <c:axId val="284803464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,12 +2210,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369332336"/>
+        <c:crossAx val="284802680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="369332336"/>
+        <c:axId val="284802680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369339784"/>
+        <c:crossAx val="284803464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2539,11 +2534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237577576"/>
-        <c:axId val="237579144"/>
+        <c:axId val="235882736"/>
+        <c:axId val="235884304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237577576"/>
+        <c:axId val="235882736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,12 +2595,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237579144"/>
+        <c:crossAx val="235884304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237579144"/>
+        <c:axId val="235884304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,7 +2657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237577576"/>
+        <c:crossAx val="235882736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2726,6 +2721,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2800,6 +2796,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2924,11 +2921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237574440"/>
-        <c:axId val="237575224"/>
+        <c:axId val="283461952"/>
+        <c:axId val="283458816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237574440"/>
+        <c:axId val="283461952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,12 +2982,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237575224"/>
+        <c:crossAx val="283458816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237575224"/>
+        <c:axId val="283458816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237574440"/>
+        <c:crossAx val="283461952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3111,6 +3108,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3315,11 +3313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237576008"/>
-        <c:axId val="237576792"/>
+        <c:axId val="283456856"/>
+        <c:axId val="283461168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237576008"/>
+        <c:axId val="283456856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,12 +3374,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237576792"/>
+        <c:crossAx val="283461168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237576792"/>
+        <c:axId val="283461168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3438,7 +3436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237576008"/>
+        <c:crossAx val="283456856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3502,6 +3500,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3576,6 +3575,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3700,11 +3700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237578360"/>
-        <c:axId val="237579928"/>
+        <c:axId val="283459208"/>
+        <c:axId val="283462344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237578360"/>
+        <c:axId val="283459208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,12 +3761,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237579928"/>
+        <c:crossAx val="283462344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237579928"/>
+        <c:axId val="283462344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,7 +3823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237578360"/>
+        <c:crossAx val="283459208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3887,6 +3887,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3961,6 +3962,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4099,11 +4101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237579536"/>
-        <c:axId val="237580320"/>
+        <c:axId val="283459600"/>
+        <c:axId val="283457248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237579536"/>
+        <c:axId val="283459600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,12 +4162,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237580320"/>
+        <c:crossAx val="283457248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237580320"/>
+        <c:axId val="283457248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,7 +4224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237579536"/>
+        <c:crossAx val="283459600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4504,11 +4506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237581104"/>
-        <c:axId val="235192288"/>
+        <c:axId val="283460384"/>
+        <c:axId val="283457640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237581104"/>
+        <c:axId val="283460384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4565,12 +4567,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235192288"/>
+        <c:crossAx val="283457640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235192288"/>
+        <c:axId val="283457640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4627,7 +4629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237581104"/>
+        <c:crossAx val="283460384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4889,11 +4891,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235186016"/>
-        <c:axId val="235185232"/>
+        <c:axId val="283458032"/>
+        <c:axId val="283460776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235186016"/>
+        <c:axId val="283458032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4950,12 +4952,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235185232"/>
+        <c:crossAx val="283460776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235185232"/>
+        <c:axId val="283460776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5012,7 +5014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235186016"/>
+        <c:crossAx val="283458032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5274,11 +5276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235185624"/>
-        <c:axId val="235191504"/>
+        <c:axId val="283458424"/>
+        <c:axId val="284803072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235185624"/>
+        <c:axId val="283458424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5335,12 +5337,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235191504"/>
+        <c:crossAx val="284803072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235191504"/>
+        <c:axId val="284803072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5397,7 +5399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235185624"/>
+        <c:crossAx val="283458424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12753,8 +12755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:L132"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16772,8 +16774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21814,8 +21816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Phenoloxidase Activity data/Data for 150 samples/11. Phenoloxidase 02-08-24 (HEG 23 - 31).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/11. Phenoloxidase 02-08-24 (HEG 23 - 31).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -814,6 +814,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1018,11 +1019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233357856"/>
-        <c:axId val="233360600"/>
+        <c:axId val="282846056"/>
+        <c:axId val="239756536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233357856"/>
+        <c:axId val="282846056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,12 +1080,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233360600"/>
+        <c:crossAx val="239756536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233360600"/>
+        <c:axId val="239756536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233357856"/>
+        <c:crossAx val="282846056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1373,11 +1374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284806600"/>
-        <c:axId val="284805816"/>
+        <c:axId val="392165320"/>
+        <c:axId val="392164536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284806600"/>
+        <c:axId val="392165320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,12 +1435,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284805816"/>
+        <c:crossAx val="392164536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284805816"/>
+        <c:axId val="392164536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284806600"/>
+        <c:crossAx val="392165320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1758,11 +1759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284806992"/>
-        <c:axId val="284810128"/>
+        <c:axId val="392164928"/>
+        <c:axId val="392165712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284806992"/>
+        <c:axId val="392164928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1819,12 +1820,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284810128"/>
+        <c:crossAx val="392165712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284810128"/>
+        <c:axId val="392165712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284806992"/>
+        <c:crossAx val="392164928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2149,11 +2150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284803464"/>
-        <c:axId val="284802680"/>
+        <c:axId val="392162184"/>
+        <c:axId val="392164144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284803464"/>
+        <c:axId val="392162184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,12 +2211,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284802680"/>
+        <c:crossAx val="392164144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284802680"/>
+        <c:axId val="392164144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284803464"/>
+        <c:crossAx val="392162184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2336,6 +2337,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2410,6 +2412,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2534,11 +2537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235882736"/>
-        <c:axId val="235884304"/>
+        <c:axId val="391490768"/>
+        <c:axId val="391488416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235882736"/>
+        <c:axId val="391490768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,12 +2598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235884304"/>
+        <c:crossAx val="391488416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235884304"/>
+        <c:axId val="391488416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,7 +2660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235882736"/>
+        <c:crossAx val="391490768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2921,11 +2924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283461952"/>
-        <c:axId val="283458816"/>
+        <c:axId val="391491160"/>
+        <c:axId val="391491944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283461952"/>
+        <c:axId val="391491160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2982,12 +2985,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283458816"/>
+        <c:crossAx val="391491944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283458816"/>
+        <c:axId val="391491944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,7 +3047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283461952"/>
+        <c:crossAx val="391491160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3313,11 +3316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283456856"/>
-        <c:axId val="283461168"/>
+        <c:axId val="391494296"/>
+        <c:axId val="391491552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283456856"/>
+        <c:axId val="391494296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,12 +3377,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283461168"/>
+        <c:crossAx val="391491552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283461168"/>
+        <c:axId val="391491552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283456856"/>
+        <c:crossAx val="391494296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3700,11 +3703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283459208"/>
-        <c:axId val="283462344"/>
+        <c:axId val="391489200"/>
+        <c:axId val="391495080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283459208"/>
+        <c:axId val="391489200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,12 +3764,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283462344"/>
+        <c:crossAx val="391495080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283462344"/>
+        <c:axId val="391495080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,7 +3826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283459208"/>
+        <c:crossAx val="391489200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4101,11 +4104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283459600"/>
-        <c:axId val="283457248"/>
+        <c:axId val="391492336"/>
+        <c:axId val="391493120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283459600"/>
+        <c:axId val="391492336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4162,12 +4165,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283457248"/>
+        <c:crossAx val="391493120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283457248"/>
+        <c:axId val="391493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4224,7 +4227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283459600"/>
+        <c:crossAx val="391492336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4288,6 +4291,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4506,11 +4510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283460384"/>
-        <c:axId val="283457640"/>
+        <c:axId val="391493512"/>
+        <c:axId val="391489984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283460384"/>
+        <c:axId val="391493512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,12 +4571,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283457640"/>
+        <c:crossAx val="391489984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283457640"/>
+        <c:axId val="391489984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4629,7 +4633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283460384"/>
+        <c:crossAx val="391493512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4693,6 +4697,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4767,6 +4772,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4891,11 +4897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283458032"/>
-        <c:axId val="283460776"/>
+        <c:axId val="391495472"/>
+        <c:axId val="391488024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283458032"/>
+        <c:axId val="391495472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,12 +4958,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283460776"/>
+        <c:crossAx val="391488024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283460776"/>
+        <c:axId val="391488024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,7 +5020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283458032"/>
+        <c:crossAx val="391495472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5078,6 +5084,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5152,6 +5159,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5276,11 +5284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283458424"/>
-        <c:axId val="284803072"/>
+        <c:axId val="392163360"/>
+        <c:axId val="392161792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283458424"/>
+        <c:axId val="392163360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5337,12 +5345,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284803072"/>
+        <c:crossAx val="392161792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284803072"/>
+        <c:axId val="392161792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5399,7 +5407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283458424"/>
+        <c:crossAx val="392163360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12755,8 +12763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:L66"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16774,8 +16782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21816,8 +21824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
